--- a/output/5Y_P2_KFSDIV.xlsx
+++ b/output/5Y_P2_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-47</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-46</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-45</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-43</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-40</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-38</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-37</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-36</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-35</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-34</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-33</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-32</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-28</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-22</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.8711</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1252</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1934</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1176</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3311</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3637</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6447</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.486</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.1958</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4264</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>17.107</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.8894</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.4004</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>15.3877</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.6367</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.0061</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.835</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>14.4216</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2404</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.382</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.9583</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2036</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9136</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.4338</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-47</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-46</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-45</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-43</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-40</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-38</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-37</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-36</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-35</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-34</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-33</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -5197,10 +5200,10 @@
         <v>200049.3299</v>
       </c>
       <c r="K17" s="1">
-        <v>118922.0124</v>
+        <v>118934.0317</v>
       </c>
       <c r="L17" s="1">
-        <v>9.382099999999999</v>
+        <v>9.382999999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-32</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -5250,10 +5253,10 @@
         <v>223149.1204</v>
       </c>
       <c r="K18" s="1">
-        <v>119915.0011</v>
+        <v>119927.0203</v>
       </c>
       <c r="L18" s="1">
-        <v>9.401899999999999</v>
+        <v>9.402900000000001</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -5303,10 +5306,10 @@
         <v>252225.8132</v>
       </c>
       <c r="K19" s="1">
-        <v>116798.8045</v>
+        <v>116823.2642</v>
       </c>
       <c r="L19" s="1">
-        <v>9.3248</v>
+        <v>9.3268</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -5356,10 +5359,10 @@
         <v>262651.3102</v>
       </c>
       <c r="K20" s="1">
-        <v>113448.1578</v>
+        <v>113486.0013</v>
       </c>
       <c r="L20" s="1">
-        <v>9.225199999999999</v>
+        <v>9.228300000000001</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -5409,10 +5412,10 @@
         <v>261109.2195</v>
       </c>
       <c r="K21" s="1">
-        <v>123061.0982</v>
+        <v>123098.9416</v>
       </c>
       <c r="L21" s="1">
-        <v>9.502599999999999</v>
+        <v>9.505599999999999</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-28</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -5462,10 +5465,10 @@
         <v>284433.8631</v>
       </c>
       <c r="K22" s="1">
-        <v>144651.0264</v>
+        <v>144688.8698</v>
       </c>
       <c r="L22" s="1">
-        <v>9.9688</v>
+        <v>9.971500000000001</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -5515,10 +5518,10 @@
         <v>274088.4283</v>
       </c>
       <c r="K23" s="1">
-        <v>152928.3638</v>
+        <v>152966.2073</v>
       </c>
       <c r="L23" s="1">
-        <v>10.1255</v>
+        <v>10.128</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -5568,10 +5571,10 @@
         <v>278759.0541</v>
       </c>
       <c r="K24" s="1">
-        <v>183362.3546</v>
+        <v>183400.1981</v>
       </c>
       <c r="L24" s="1">
-        <v>10.4678</v>
+        <v>10.47</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -5621,10 +5624,10 @@
         <v>311141.6231</v>
       </c>
       <c r="K25" s="1">
-        <v>198631.1064</v>
+        <v>198668.9499</v>
       </c>
       <c r="L25" s="1">
-        <v>10.5897</v>
+        <v>10.5917</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -5674,10 +5677,10 @@
         <v>334805.2628</v>
       </c>
       <c r="K26" s="1">
-        <v>194051.7652</v>
+        <v>194107.904</v>
       </c>
       <c r="L26" s="1">
-        <v>10.5422</v>
+        <v>10.5452</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -5727,10 +5730,10 @@
         <v>340375.154</v>
       </c>
       <c r="K27" s="1">
-        <v>190373.4238</v>
+        <v>190444.2643</v>
       </c>
       <c r="L27" s="1">
-        <v>10.4939</v>
+        <v>10.4978</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-22</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -5780,10 +5783,10 @@
         <v>351103.3257</v>
       </c>
       <c r="K28" s="1">
-        <v>204861.4172</v>
+        <v>204932.2577</v>
       </c>
       <c r="L28" s="1">
-        <v>10.6658</v>
+        <v>10.6695</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -5833,10 +5836,10 @@
         <v>389471.7958</v>
       </c>
       <c r="K29" s="1">
-        <v>222308.7137</v>
+        <v>222379.5542</v>
       </c>
       <c r="L29" s="1">
-        <v>10.8292</v>
+        <v>10.8327</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -5886,10 +5889,10 @@
         <v>387846.298</v>
       </c>
       <c r="K30" s="1">
-        <v>203796.5398</v>
+        <v>203941.3224</v>
       </c>
       <c r="L30" s="1">
-        <v>10.5812</v>
+        <v>10.5887</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -5939,10 +5942,10 @@
         <v>371197.7639</v>
       </c>
       <c r="K31" s="1">
-        <v>225508.7935</v>
+        <v>225653.5762</v>
       </c>
       <c r="L31" s="1">
-        <v>10.8354</v>
+        <v>10.8423</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -5992,10 +5995,10 @@
         <v>384547.8105</v>
       </c>
       <c r="K32" s="1">
-        <v>270919.1046</v>
+        <v>271063.8872</v>
       </c>
       <c r="L32" s="1">
-        <v>11.0548</v>
+        <v>11.0607</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -6045,10 +6048,10 @@
         <v>394203.9821</v>
       </c>
       <c r="K33" s="1">
-        <v>277413.6024</v>
+        <v>277558.3851</v>
       </c>
       <c r="L33" s="1">
-        <v>11.0836</v>
+        <v>11.0894</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -6098,10 +6101,10 @@
         <v>428427.213</v>
       </c>
       <c r="K34" s="1">
-        <v>287772.8363</v>
+        <v>287917.619</v>
       </c>
       <c r="L34" s="1">
-        <v>11.1267</v>
+        <v>11.1323</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -6151,10 +6154,10 @@
         <v>449973.5608</v>
       </c>
       <c r="K35" s="1">
-        <v>284759.362</v>
+        <v>284916.1965</v>
       </c>
       <c r="L35" s="1">
-        <v>11.1104</v>
+        <v>11.1165</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -6204,10 +6207,10 @@
         <v>473409.2504</v>
       </c>
       <c r="K36" s="1">
-        <v>283206.8062</v>
+        <v>283369.8488</v>
       </c>
       <c r="L36" s="1">
-        <v>11.1</v>
+        <v>11.1064</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -6257,10 +6260,10 @@
         <v>513713.7463</v>
       </c>
       <c r="K37" s="1">
-        <v>279757.3268</v>
+        <v>279934.1592</v>
       </c>
       <c r="L37" s="1">
-        <v>11.0725</v>
+        <v>11.0795</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -6310,10 +6313,10 @@
         <v>541847.4121</v>
       </c>
       <c r="K38" s="1">
-        <v>270898.7866</v>
+        <v>271110.978</v>
       </c>
       <c r="L38" s="1">
-        <v>10.9846</v>
+        <v>10.9932</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.8711</v>
@@ -6363,10 +6366,10 @@
         <v>515904.1137</v>
       </c>
       <c r="K39" s="1">
-        <v>262732.4968</v>
+        <v>262977.3122</v>
       </c>
       <c r="L39" s="1">
-        <v>10.8877</v>
+        <v>10.8979</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1252</v>
@@ -6416,10 +6419,10 @@
         <v>543540.2192000001</v>
       </c>
       <c r="K40" s="1">
-        <v>308859.9879</v>
+        <v>309104.8033</v>
       </c>
       <c r="L40" s="1">
-        <v>11.2518</v>
+        <v>11.2607</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1934</v>
@@ -6469,10 +6472,10 @@
         <v>555409.2916</v>
       </c>
       <c r="K41" s="1">
-        <v>311910.8712</v>
+        <v>312155.6866</v>
       </c>
       <c r="L41" s="1">
-        <v>11.2744</v>
+        <v>11.2832</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1176</v>
@@ -6522,10 +6525,10 @@
         <v>563241.8969000001</v>
       </c>
       <c r="K42" s="1">
-        <v>320062.1751</v>
+        <v>320306.9905</v>
       </c>
       <c r="L42" s="1">
-        <v>11.3342</v>
+        <v>11.3429</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3311</v>
@@ -6575,10 +6578,10 @@
         <v>621140.5799</v>
       </c>
       <c r="K43" s="1">
-        <v>332245.6765</v>
+        <v>332490.4919</v>
       </c>
       <c r="L43" s="1">
-        <v>11.4174</v>
+        <v>11.4258</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3637</v>
@@ -6628,10 +6631,10 @@
         <v>632035.4584999999</v>
       </c>
       <c r="K44" s="1">
-        <v>306904.4217</v>
+        <v>307250.5243</v>
       </c>
       <c r="L44" s="1">
-        <v>11.1804</v>
+        <v>11.193</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6447</v>
@@ -6681,10 +6684,10 @@
         <v>621874.5007</v>
       </c>
       <c r="K45" s="1">
-        <v>316046.0634</v>
+        <v>316392.1659</v>
       </c>
       <c r="L45" s="1">
-        <v>11.2696</v>
+        <v>11.282</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.486</v>
@@ -6734,10 +6737,10 @@
         <v>682269.7492</v>
       </c>
       <c r="K46" s="1">
-        <v>346291.2839</v>
+        <v>346637.3864</v>
       </c>
       <c r="L46" s="1">
-        <v>11.5027</v>
+        <v>11.5142</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.1958</v>
@@ -6787,10 +6790,10 @@
         <v>712896.0837</v>
       </c>
       <c r="K47" s="1">
-        <v>330953.6482</v>
+        <v>331361.0341</v>
       </c>
       <c r="L47" s="1">
-        <v>11.3664</v>
+        <v>11.3804</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4264</v>
@@ -6840,10 +6843,10 @@
         <v>729447.4281</v>
       </c>
       <c r="K48" s="1">
-        <v>320284.7121</v>
+        <v>320734.6996</v>
       </c>
       <c r="L48" s="1">
-        <v>11.2541</v>
+        <v>11.2699</v>
       </c>
       <c r="M48" s="1">
         <v>0.75</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>17.107</v>
@@ -6893,10 +6896,10 @@
         <v>778116.1513</v>
       </c>
       <c r="K49" s="1">
-        <v>323747.1887</v>
+        <v>324197.1762</v>
       </c>
       <c r="L49" s="1">
-        <v>11.2923</v>
+        <v>11.308</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.8894</v>
@@ -6946,10 +6949,10 @@
         <v>782009.5959</v>
       </c>
       <c r="K50" s="1">
-        <v>314236.7059</v>
+        <v>314724.6992</v>
       </c>
       <c r="L50" s="1">
-        <v>11.1769</v>
+        <v>11.1942</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.4004</v>
@@ -6999,10 +7002,10 @@
         <v>803062.0233999999</v>
       </c>
       <c r="K51" s="1">
-        <v>330407.8573</v>
+        <v>330895.8505</v>
       </c>
       <c r="L51" s="1">
-        <v>11.3658</v>
+        <v>11.3825</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>15.3877</v>
@@ -7052,10 +7055,10 @@
         <v>782089.9172</v>
       </c>
       <c r="K52" s="1">
-        <v>354691.3253</v>
+        <v>355179.3185</v>
       </c>
       <c r="L52" s="1">
-        <v>11.6109</v>
+        <v>11.6269</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.6367</v>
@@ -7105,10 +7108,10 @@
         <v>767035.1925</v>
       </c>
       <c r="K53" s="1">
-        <v>395730.3056</v>
+        <v>396218.2989</v>
       </c>
       <c r="L53" s="1">
-        <v>11.9161</v>
+        <v>11.9308</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.0061</v>
@@ -7158,10 +7161,10 @@
         <v>718965.9537</v>
       </c>
       <c r="K54" s="1">
-        <v>430761.0414</v>
+        <v>431249.0346</v>
       </c>
       <c r="L54" s="1">
-        <v>12.1006</v>
+        <v>12.1143</v>
       </c>
       <c r="M54" s="1">
         <v>0.5</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.835</v>
@@ -7211,10 +7214,10 @@
         <v>778488.5856</v>
       </c>
       <c r="K55" s="1">
-        <v>498962.9671</v>
+        <v>499450.9604</v>
       </c>
       <c r="L55" s="1">
-        <v>12.22</v>
+        <v>12.2319</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>14.4216</v>
@@ -7264,10 +7267,10 @@
         <v>811387.3419999999</v>
       </c>
       <c r="K56" s="1">
-        <v>475091.558</v>
+        <v>475674.9494</v>
       </c>
       <c r="L56" s="1">
-        <v>12.1477</v>
+        <v>12.1626</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2404</v>
@@ -7317,10 +7320,10 @@
         <v>776337.3865</v>
       </c>
       <c r="K57" s="1">
-        <v>462141.0911</v>
+        <v>462776.1929</v>
       </c>
       <c r="L57" s="1">
-        <v>12.0936</v>
+        <v>12.1103</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.382</v>
@@ -7370,10 +7373,10 @@
         <v>763566.847</v>
       </c>
       <c r="K58" s="1">
-        <v>517411.848</v>
+        <v>518046.9499</v>
       </c>
       <c r="L58" s="1">
-        <v>12.209</v>
+        <v>12.224</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.9583</v>
@@ -7423,10 +7426,10 @@
         <v>753878.5027</v>
       </c>
       <c r="K59" s="1">
-        <v>563904.3325</v>
+        <v>564539.4344</v>
       </c>
       <c r="L59" s="1">
-        <v>12.2251</v>
+        <v>12.2388</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2036</v>
@@ -7476,10 +7479,10 @@
         <v>775657.1285</v>
       </c>
       <c r="K60" s="1">
-        <v>593525.2202</v>
+        <v>594160.3221</v>
       </c>
       <c r="L60" s="1">
-        <v>12.2127</v>
+        <v>12.2258</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9136</v>
@@ -7529,10 +7532,10 @@
         <v>837479.6565</v>
       </c>
       <c r="K61" s="1">
-        <v>591620.5664</v>
+        <v>592263.2849</v>
       </c>
       <c r="L61" s="1">
-        <v>12.2127</v>
+        <v>12.2259</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.4338</v>
@@ -7582,10 +7585,10 @@
         <v>871646.6982</v>
       </c>
       <c r="K62" s="1">
-        <v>567196.0928</v>
+        <v>567936.3997</v>
       </c>
       <c r="L62" s="1">
-        <v>12.1832</v>
+        <v>12.1991</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-47</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-46</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-45</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-43</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-40</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-38</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-37</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-36</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-35</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-34</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-33</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -8509,10 +8512,10 @@
         <v>201327.2618</v>
       </c>
       <c r="K17" s="1">
-        <v>123570.7204</v>
+        <v>123581.5664</v>
       </c>
       <c r="L17" s="1">
-        <v>9.4122</v>
+        <v>9.413</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-32</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -8562,10 +8565,10 @@
         <v>224928.2751</v>
       </c>
       <c r="K18" s="1">
-        <v>125020.0377</v>
+        <v>125030.8837</v>
       </c>
       <c r="L18" s="1">
-        <v>9.4398</v>
+        <v>9.4406</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -8615,10 +8618,10 @@
         <v>254772.3654</v>
       </c>
       <c r="K19" s="1">
-        <v>122232.8208</v>
+        <v>122254.7938</v>
       </c>
       <c r="L19" s="1">
-        <v>9.3741</v>
+        <v>9.3758</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -8668,10 +8671,10 @@
         <v>265216.4375</v>
       </c>
       <c r="K20" s="1">
-        <v>119221.3297</v>
+        <v>119255.3317</v>
       </c>
       <c r="L20" s="1">
-        <v>9.289199999999999</v>
+        <v>9.2918</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -8721,10 +8724,10 @@
         <v>263138.0211</v>
       </c>
       <c r="K21" s="1">
-        <v>129758.6807</v>
+        <v>129792.6827</v>
       </c>
       <c r="L21" s="1">
-        <v>9.5764</v>
+        <v>9.578900000000001</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-28</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -8774,10 +8777,10 @@
         <v>287082.1385</v>
       </c>
       <c r="K22" s="1">
-        <v>152881.349</v>
+        <v>152915.351</v>
       </c>
       <c r="L22" s="1">
-        <v>10.0443</v>
+        <v>10.0466</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -8827,10 +8830,10 @@
         <v>275684.3242</v>
       </c>
       <c r="K23" s="1">
-        <v>162125.5529</v>
+        <v>162159.5549</v>
       </c>
       <c r="L23" s="1">
-        <v>10.2076</v>
+        <v>10.2097</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -8880,10 +8883,10 @@
         <v>280063.5714</v>
       </c>
       <c r="K24" s="1">
-        <v>194720.8977</v>
+        <v>194754.8997</v>
       </c>
       <c r="L24" s="1">
-        <v>10.5438</v>
+        <v>10.5457</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -8933,10 +8936,10 @@
         <v>313697.9161</v>
       </c>
       <c r="K25" s="1">
-        <v>211437.8987</v>
+        <v>211471.9007</v>
       </c>
       <c r="L25" s="1">
-        <v>10.6649</v>
+        <v>10.6666</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -8986,10 +8989,10 @@
         <v>338176.7942</v>
       </c>
       <c r="K26" s="1">
-        <v>207246.0238</v>
+        <v>207296.7732</v>
       </c>
       <c r="L26" s="1">
-        <v>10.625</v>
+        <v>10.6276</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -9039,10 +9042,10 @@
         <v>343470.4034</v>
       </c>
       <c r="K27" s="1">
-        <v>204025.8732</v>
+        <v>204089.4929</v>
       </c>
       <c r="L27" s="1">
-        <v>10.5863</v>
+        <v>10.5896</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-22</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -9092,10 +9095,10 @@
         <v>354221.1771</v>
       </c>
       <c r="K28" s="1">
-        <v>220124.5395</v>
+        <v>220188.1592</v>
       </c>
       <c r="L28" s="1">
-        <v>10.7602</v>
+        <v>10.7633</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -9145,10 +9148,10 @@
         <v>394510.0315</v>
       </c>
       <c r="K29" s="1">
-        <v>239443.9991</v>
+        <v>239507.6189</v>
       </c>
       <c r="L29" s="1">
-        <v>10.9234</v>
+        <v>10.9263</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -9198,10 +9201,10 @@
         <v>392064.7194</v>
       </c>
       <c r="K30" s="1">
-        <v>220443.5232</v>
+        <v>220583.0355</v>
       </c>
       <c r="L30" s="1">
-        <v>10.6916</v>
+        <v>10.6983</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -9251,10 +9254,10 @@
         <v>373437.3849</v>
       </c>
       <c r="K31" s="1">
-        <v>244483.6188</v>
+        <v>244623.1311</v>
       </c>
       <c r="L31" s="1">
-        <v>10.9453</v>
+        <v>10.9515</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -9304,10 +9307,10 @@
         <v>387039.2313</v>
       </c>
       <c r="K32" s="1">
-        <v>294047.4351</v>
+        <v>294186.9475</v>
       </c>
       <c r="L32" s="1">
-        <v>11.151</v>
+        <v>11.1563</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -9357,10 +9360,10 @@
         <v>396664.9692</v>
       </c>
       <c r="K33" s="1">
-        <v>301892.9406</v>
+        <v>302032.4529</v>
       </c>
       <c r="L33" s="1">
-        <v>11.181</v>
+        <v>11.1862</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -9410,10 +9413,10 @@
         <v>432828.3014</v>
       </c>
       <c r="K34" s="1">
-        <v>313956.0828</v>
+        <v>314095.5951</v>
       </c>
       <c r="L34" s="1">
-        <v>11.2241</v>
+        <v>11.2291</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -9463,10 +9466,10 @@
         <v>455347.9246</v>
       </c>
       <c r="K35" s="1">
-        <v>311615.8629</v>
+        <v>311764.7345</v>
       </c>
       <c r="L35" s="1">
-        <v>11.213</v>
+        <v>11.2184</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -9516,10 +9519,10 @@
         <v>479953.5369</v>
       </c>
       <c r="K36" s="1">
-        <v>310882.3901</v>
+        <v>311034.1946</v>
       </c>
       <c r="L36" s="1">
-        <v>11.2088</v>
+        <v>11.2142</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -9569,10 +9572,10 @@
         <v>522949.3774</v>
       </c>
       <c r="K37" s="1">
-        <v>308113.7385</v>
+        <v>308276.6111</v>
       </c>
       <c r="L37" s="1">
-        <v>11.1892</v>
+        <v>11.1952</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -9622,10 +9625,10 @@
         <v>552763.4825</v>
       </c>
       <c r="K38" s="1">
-        <v>299471.7309</v>
+        <v>299669.0982</v>
       </c>
       <c r="L38" s="1">
-        <v>11.1134</v>
+        <v>11.1207</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.8711</v>
@@ -9675,10 +9678,10 @@
         <v>523388.2932</v>
       </c>
       <c r="K39" s="1">
-        <v>291592.9557</v>
+        <v>291821.7984</v>
       </c>
       <c r="L39" s="1">
-        <v>11.0305</v>
+        <v>11.0391</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1252</v>
@@ -9728,10 +9731,10 @@
         <v>552723.6442</v>
       </c>
       <c r="K40" s="1">
-        <v>343200.8609</v>
+        <v>343429.7036</v>
       </c>
       <c r="L40" s="1">
-        <v>11.3838</v>
+        <v>11.3914</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1934</v>
@@ -9781,10 +9784,10 @@
         <v>564777.3492000001</v>
       </c>
       <c r="K41" s="1">
-        <v>347659.8333</v>
+        <v>347888.676</v>
       </c>
       <c r="L41" s="1">
-        <v>11.4124</v>
+        <v>11.4199</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1176</v>
@@ -9834,10 +9837,10 @@
         <v>572380.1456</v>
       </c>
       <c r="K42" s="1">
-        <v>357775.937</v>
+        <v>358004.7797</v>
       </c>
       <c r="L42" s="1">
-        <v>11.4765</v>
+        <v>11.4839</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3311</v>
@@ -9887,10 +9890,10 @@
         <v>635354.6372999999</v>
       </c>
       <c r="K43" s="1">
-        <v>372399.0867</v>
+        <v>372627.9294</v>
       </c>
       <c r="L43" s="1">
-        <v>11.5622</v>
+        <v>11.5693</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3637</v>
@@ -9940,10 +9943,10 @@
         <v>646347.6658</v>
       </c>
       <c r="K44" s="1">
-        <v>345556.4613</v>
+        <v>345892.592</v>
       </c>
       <c r="L44" s="1">
-        <v>11.3442</v>
+        <v>11.3553</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6447</v>
@@ -9993,10 +9996,10 @@
         <v>633912.7857</v>
       </c>
       <c r="K45" s="1">
-        <v>356939.2333</v>
+        <v>357275.364</v>
       </c>
       <c r="L45" s="1">
-        <v>11.4402</v>
+        <v>11.451</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.486</v>
@@ -10046,10 +10049,10 @@
         <v>700047.606</v>
       </c>
       <c r="K46" s="1">
-        <v>391860.0735</v>
+        <v>392196.2041</v>
       </c>
       <c r="L46" s="1">
-        <v>11.6694</v>
+        <v>11.6794</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.1958</v>
@@ -10099,10 +10102,10 @@
         <v>733114.3403</v>
       </c>
       <c r="K47" s="1">
-        <v>376056.953</v>
+        <v>376456.2269</v>
       </c>
       <c r="L47" s="1">
-        <v>11.549</v>
+        <v>11.5613</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4264</v>
@@ -10152,10 +10155,10 @@
         <v>750459.791</v>
       </c>
       <c r="K48" s="1">
-        <v>365464.1293</v>
+        <v>365905.7008</v>
       </c>
       <c r="L48" s="1">
-        <v>11.4533</v>
+        <v>11.4672</v>
       </c>
       <c r="M48" s="1">
         <v>0.75</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>17.107</v>
@@ -10205,10 +10208,10 @@
         <v>803866.8</v>
       </c>
       <c r="K49" s="1">
-        <v>370718.4413</v>
+        <v>371160.0129</v>
       </c>
       <c r="L49" s="1">
-        <v>11.5029</v>
+        <v>11.5166</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.8894</v>
@@ -10258,10 +10261,10 @@
         <v>806984.4789</v>
       </c>
       <c r="K50" s="1">
-        <v>361433.6097</v>
+        <v>361912.2853</v>
       </c>
       <c r="L50" s="1">
-        <v>11.4065</v>
+        <v>11.4216</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.4004</v>
@@ -10311,10 +10314,10 @@
         <v>829393.7017</v>
       </c>
       <c r="K51" s="1">
-        <v>381099.3776</v>
+        <v>381578.0532</v>
       </c>
       <c r="L51" s="1">
-        <v>11.6017</v>
+        <v>11.6163</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>15.3877</v>
@@ -10364,10 +10367,10 @@
         <v>804299.6912</v>
       </c>
       <c r="K52" s="1">
-        <v>410013.5188</v>
+        <v>410492.1944</v>
       </c>
       <c r="L52" s="1">
-        <v>11.8473</v>
+        <v>11.8612</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.6367</v>
@@ -10417,10 +10420,10 @@
         <v>785835.7166</v>
       </c>
       <c r="K53" s="1">
-        <v>458015.9688</v>
+        <v>458494.6443</v>
       </c>
       <c r="L53" s="1">
-        <v>12.1421</v>
+        <v>12.1548</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.0061</v>
@@ -10470,10 +10473,10 @@
         <v>729700.2308</v>
       </c>
       <c r="K54" s="1">
-        <v>499349.7381</v>
+        <v>499828.4137</v>
       </c>
       <c r="L54" s="1">
-        <v>12.3175</v>
+        <v>12.3293</v>
       </c>
       <c r="M54" s="1">
         <v>0.5</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.835</v>
@@ -10523,10 +10526,10 @@
         <v>796190.9343</v>
       </c>
       <c r="K55" s="1">
-        <v>578597.7878</v>
+        <v>579076.4632999999</v>
       </c>
       <c r="L55" s="1">
-        <v>12.4108</v>
+        <v>12.421</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>14.4216</v>
@@ -10576,10 +10579,10 @@
         <v>832404.367</v>
       </c>
       <c r="K56" s="1">
-        <v>552956.388</v>
+        <v>553537.5352</v>
       </c>
       <c r="L56" s="1">
-        <v>12.3508</v>
+        <v>12.3637</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2404</v>
@@ -10629,10 +10632,10 @@
         <v>790698.6696</v>
       </c>
       <c r="K57" s="1">
-        <v>539781.1821</v>
+        <v>540414.9371</v>
       </c>
       <c r="L57" s="1">
-        <v>12.3071</v>
+        <v>12.3216</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.382</v>
@@ -10682,10 +10685,10 @@
         <v>774448.3988</v>
       </c>
       <c r="K58" s="1">
-        <v>604903.3249</v>
+        <v>605537.08</v>
       </c>
       <c r="L58" s="1">
-        <v>12.4037</v>
+        <v>12.4167</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.9583</v>
@@ -10735,10 +10738,10 @@
         <v>761726.6963</v>
       </c>
       <c r="K59" s="1">
-        <v>660125.6157</v>
+        <v>660759.3707</v>
       </c>
       <c r="L59" s="1">
-        <v>12.404</v>
+        <v>12.4159</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2036</v>
@@ -10788,10 +10791,10 @@
         <v>785345.1411</v>
       </c>
       <c r="K60" s="1">
-        <v>696058.3741</v>
+        <v>696692.1291</v>
       </c>
       <c r="L60" s="1">
-        <v>12.3815</v>
+        <v>12.3928</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9136</v>
@@ -10841,10 +10844,10 @@
         <v>855395.6478</v>
       </c>
       <c r="K61" s="1">
-        <v>695649.2713</v>
+        <v>696284.6623</v>
       </c>
       <c r="L61" s="1">
-        <v>12.3816</v>
+        <v>12.3929</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.4338</v>
@@ -10894,10 +10897,10 @@
         <v>893497.9018</v>
       </c>
       <c r="K62" s="1">
-        <v>669152.6565</v>
+        <v>669893.9152</v>
       </c>
       <c r="L62" s="1">
-        <v>12.3605</v>
+        <v>12.3742</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-47</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-46</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-45</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-43</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-40</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-38</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-37</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-36</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-35</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-34</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-33</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -11821,10 +11824,10 @@
         <v>202618.869</v>
       </c>
       <c r="K17" s="1">
-        <v>128465.9647</v>
+        <v>128475.514</v>
       </c>
       <c r="L17" s="1">
-        <v>9.4444</v>
+        <v>9.4451</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-32</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -11874,10 +11877,10 @@
         <v>226745.0192</v>
       </c>
       <c r="K18" s="1">
-        <v>130413.5151</v>
+        <v>130423.0643</v>
       </c>
       <c r="L18" s="1">
-        <v>9.479799999999999</v>
+        <v>9.480499999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -11927,10 +11930,10 @@
         <v>257395.1729</v>
       </c>
       <c r="K19" s="1">
-        <v>127995.7212</v>
+        <v>128014.9228</v>
       </c>
       <c r="L19" s="1">
-        <v>9.425599999999999</v>
+        <v>9.427</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -11980,10 +11983,10 @@
         <v>267858.8405</v>
       </c>
       <c r="K20" s="1">
-        <v>125368.7628</v>
+        <v>125398.4573</v>
       </c>
       <c r="L20" s="1">
-        <v>9.3553</v>
+        <v>9.3575</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -12033,10 +12036,10 @@
         <v>265212.6124</v>
       </c>
       <c r="K21" s="1">
-        <v>136912.7285</v>
+        <v>136942.4231</v>
       </c>
       <c r="L21" s="1">
-        <v>9.6523</v>
+        <v>9.654400000000001</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-28</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -12086,10 +12089,10 @@
         <v>289812.608</v>
       </c>
       <c r="K22" s="1">
-        <v>161692.9109</v>
+        <v>161722.6055</v>
       </c>
       <c r="L22" s="1">
-        <v>10.1215</v>
+        <v>10.1234</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -12139,10 +12142,10 @@
         <v>277293.1769</v>
       </c>
       <c r="K23" s="1">
-        <v>172003.031</v>
+        <v>172032.7256</v>
       </c>
       <c r="L23" s="1">
-        <v>10.2912</v>
+        <v>10.2929</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -12192,10 +12195,10 @@
         <v>281360.7237</v>
       </c>
       <c r="K24" s="1">
-        <v>206944.8294</v>
+        <v>206974.524</v>
       </c>
       <c r="L24" s="1">
-        <v>10.6209</v>
+        <v>10.6224</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -12245,10 +12248,10 @@
         <v>316336.3497</v>
       </c>
       <c r="K25" s="1">
-        <v>225257.968</v>
+        <v>225287.6625</v>
       </c>
       <c r="L25" s="1">
-        <v>10.7408</v>
+        <v>10.7422</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -12298,10 +12301,10 @@
         <v>341692.8375</v>
       </c>
       <c r="K26" s="1">
-        <v>221534.0137</v>
+        <v>221578.5862</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7085</v>
+        <v>10.7106</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -12351,10 +12354,10 @@
         <v>346688.0196</v>
       </c>
       <c r="K27" s="1">
-        <v>218864.2017</v>
+        <v>218919.445</v>
       </c>
       <c r="L27" s="1">
-        <v>10.679</v>
+        <v>10.6817</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-22</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -12404,10 +12407,10 @@
         <v>357461.2001</v>
       </c>
       <c r="K28" s="1">
-        <v>236764.8589</v>
+        <v>236820.1022</v>
       </c>
       <c r="L28" s="1">
-        <v>10.8549</v>
+        <v>10.8574</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -12457,10 +12460,10 @@
         <v>399838.2194</v>
       </c>
       <c r="K29" s="1">
-        <v>258180.9903</v>
+        <v>258236.2336</v>
       </c>
       <c r="L29" s="1">
-        <v>11.0175</v>
+        <v>11.0199</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -12510,10 +12513,10 @@
         <v>396498.3356</v>
       </c>
       <c r="K30" s="1">
-        <v>238722.7078</v>
+        <v>238855.6723</v>
       </c>
       <c r="L30" s="1">
-        <v>10.8017</v>
+        <v>10.8077</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -12563,10 +12566,10 @@
         <v>375701.8704</v>
       </c>
       <c r="K31" s="1">
-        <v>265382.0242</v>
+        <v>265514.9886</v>
       </c>
       <c r="L31" s="1">
-        <v>11.0548</v>
+        <v>11.0603</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -12616,10 +12619,10 @@
         <v>389580.0706</v>
       </c>
       <c r="K32" s="1">
-        <v>319578.7601</v>
+        <v>319711.7245</v>
       </c>
       <c r="L32" s="1">
-        <v>11.2465</v>
+        <v>11.2512</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -12669,10 +12672,10 @@
         <v>399171.9134</v>
       </c>
       <c r="K33" s="1">
-        <v>329000.1903</v>
+        <v>329133.1547</v>
       </c>
       <c r="L33" s="1">
-        <v>11.2774</v>
+        <v>11.282</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -12722,10 +12725,10 @@
         <v>437477.5265</v>
       </c>
       <c r="K34" s="1">
-        <v>343040.0249</v>
+        <v>343172.9893</v>
       </c>
       <c r="L34" s="1">
-        <v>11.3201</v>
+        <v>11.3245</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -12775,10 +12778,10 @@
         <v>461077.3776</v>
       </c>
       <c r="K35" s="1">
-        <v>341549.8402</v>
+        <v>341688.7643</v>
       </c>
       <c r="L35" s="1">
-        <v>11.314</v>
+        <v>11.3186</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -12828,10 +12831,10 @@
         <v>486984.753</v>
       </c>
       <c r="K36" s="1">
-        <v>341838.0423</v>
+        <v>341976.9665</v>
       </c>
       <c r="L36" s="1">
-        <v>11.3154</v>
+        <v>11.32</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -12881,10 +12884,10 @@
         <v>532984.3151</v>
       </c>
       <c r="K37" s="1">
-        <v>339947.7276</v>
+        <v>340094.2086</v>
       </c>
       <c r="L37" s="1">
-        <v>11.3037</v>
+        <v>11.3086</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -12934,10 +12937,10 @@
         <v>564682.6960999999</v>
       </c>
       <c r="K38" s="1">
-        <v>331675.625</v>
+        <v>331855.1242</v>
       </c>
       <c r="L38" s="1">
-        <v>11.2396</v>
+        <v>11.2457</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.8711</v>
@@ -12987,10 +12990,10 @@
         <v>531446.1652</v>
       </c>
       <c r="K39" s="1">
-        <v>324255.2879</v>
+        <v>324464.431</v>
       </c>
       <c r="L39" s="1">
-        <v>11.1706</v>
+        <v>11.1778</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1252</v>
@@ -13040,10 +13043,10 @@
         <v>562695.4563</v>
       </c>
       <c r="K40" s="1">
-        <v>382173.8594</v>
+        <v>382383.0025</v>
       </c>
       <c r="L40" s="1">
-        <v>11.5131</v>
+        <v>11.5194</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1934</v>
@@ -13093,10 +13096,10 @@
         <v>574957.7337</v>
       </c>
       <c r="K41" s="1">
-        <v>388375.7184</v>
+        <v>388584.8615</v>
       </c>
       <c r="L41" s="1">
-        <v>11.5475</v>
+        <v>11.5537</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1176</v>
@@ -13146,10 +13149,10 @@
         <v>582298.6799</v>
       </c>
       <c r="K42" s="1">
-        <v>400879.8484</v>
+        <v>401088.9915</v>
       </c>
       <c r="L42" s="1">
-        <v>11.6156</v>
+        <v>11.6217</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3311</v>
@@ -13199,10 +13202,10 @@
         <v>651057.0427</v>
       </c>
       <c r="K43" s="1">
-        <v>418447.7675</v>
+        <v>418656.9106</v>
       </c>
       <c r="L43" s="1">
-        <v>11.7035</v>
+        <v>11.7094</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3637</v>
@@ -13252,10 +13255,10 @@
         <v>662162.4093000001</v>
       </c>
       <c r="K44" s="1">
-        <v>390073.7916</v>
+        <v>390396.3435</v>
       </c>
       <c r="L44" s="1">
-        <v>11.5042</v>
+        <v>11.5138</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6447</v>
@@ -13305,10 +13308,10 @@
         <v>647115.2208</v>
       </c>
       <c r="K45" s="1">
-        <v>404212.8085</v>
+        <v>404535.3603</v>
       </c>
       <c r="L45" s="1">
-        <v>11.6068</v>
+        <v>11.6161</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.486</v>
@@ -13358,10 +13361,10 @@
         <v>719852.6107</v>
       </c>
       <c r="K46" s="1">
-        <v>444704.9942</v>
+        <v>445027.5461</v>
       </c>
       <c r="L46" s="1">
-        <v>11.832</v>
+        <v>11.8406</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.1958</v>
@@ -13411,10 +13414,10 @@
         <v>755741.4449</v>
       </c>
       <c r="K47" s="1">
-        <v>428577.4932</v>
+        <v>428964.4843</v>
       </c>
       <c r="L47" s="1">
-        <v>11.7272</v>
+        <v>11.7378</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4264</v>
@@ -13464,10 +13467,10 @@
         <v>774008.3707</v>
       </c>
       <c r="K48" s="1">
-        <v>418295.7107</v>
+        <v>418723.7575</v>
       </c>
       <c r="L48" s="1">
-        <v>11.6478</v>
+        <v>11.6597</v>
       </c>
       <c r="M48" s="1">
         <v>0.75</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>17.107</v>
@@ -13517,10 +13520,10 @@
         <v>832922.3864</v>
       </c>
       <c r="K49" s="1">
-        <v>425863.5819</v>
+        <v>426291.6287</v>
       </c>
       <c r="L49" s="1">
-        <v>11.7086</v>
+        <v>11.7204</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.8894</v>
@@ -13570,10 +13573,10 @@
         <v>835133.6520999999</v>
       </c>
       <c r="K50" s="1">
-        <v>417087.4724</v>
+        <v>417550.5903</v>
       </c>
       <c r="L50" s="1">
-        <v>11.6311</v>
+        <v>11.644</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.4004</v>
@@ -13623,10 +13626,10 @@
         <v>859119.7004</v>
       </c>
       <c r="K51" s="1">
-        <v>441094.3635</v>
+        <v>441557.4814</v>
       </c>
       <c r="L51" s="1">
-        <v>11.8325</v>
+        <v>11.8449</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>15.3877</v>
@@ -13676,10 +13679,10 @@
         <v>829175.273</v>
       </c>
       <c r="K52" s="1">
-        <v>475708.0486</v>
+        <v>476171.1665</v>
       </c>
       <c r="L52" s="1">
-        <v>12.0785</v>
+        <v>12.0903</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.6367</v>
@@ -13729,10 +13732,10 @@
         <v>806685.4338999999</v>
       </c>
       <c r="K53" s="1">
-        <v>532186.0503</v>
+        <v>532649.1682</v>
       </c>
       <c r="L53" s="1">
-        <v>12.3627</v>
+        <v>12.3735</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.0061</v>
@@ -13782,10 +13785,10 @@
         <v>740993.1645</v>
       </c>
       <c r="K54" s="1">
-        <v>581257.1</v>
+        <v>581720.2179</v>
       </c>
       <c r="L54" s="1">
-        <v>12.5288</v>
+        <v>12.5388</v>
       </c>
       <c r="M54" s="1">
         <v>0.5</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.835</v>
@@ -13835,10 +13838,10 @@
         <v>815757.0273</v>
       </c>
       <c r="K55" s="1">
-        <v>673900.5577</v>
+        <v>674363.6756</v>
       </c>
       <c r="L55" s="1">
-        <v>12.5957</v>
+        <v>12.6044</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>14.4216</v>
@@ -13888,10 +13891,10 @@
         <v>855924.4626</v>
       </c>
       <c r="K56" s="1">
-        <v>646478.4868</v>
+        <v>647051.1925</v>
       </c>
       <c r="L56" s="1">
-        <v>12.5471</v>
+        <v>12.5582</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2404</v>
@@ -13941,10 +13944,10 @@
         <v>806251.736</v>
       </c>
       <c r="K57" s="1">
-        <v>633372.826</v>
+        <v>633997.8618</v>
       </c>
       <c r="L57" s="1">
-        <v>12.513</v>
+        <v>12.5253</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.382</v>
@@ -13994,10 +13997,10 @@
         <v>785812.0187</v>
       </c>
       <c r="K58" s="1">
-        <v>710639.4713</v>
+        <v>711264.5071</v>
       </c>
       <c r="L58" s="1">
-        <v>12.5908</v>
+        <v>12.6018</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.9583</v>
@@ -14047,10 +14050,10 @@
         <v>769432.7484</v>
       </c>
       <c r="K59" s="1">
-        <v>776714.9965</v>
+        <v>777340.0323</v>
       </c>
       <c r="L59" s="1">
-        <v>12.5749</v>
+        <v>12.585</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2036</v>
@@ -14100,10 +14103,10 @@
         <v>795248.093</v>
       </c>
       <c r="K60" s="1">
-        <v>818994.9406</v>
+        <v>819619.9764</v>
       </c>
       <c r="L60" s="1">
-        <v>12.5429</v>
+        <v>12.5525</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9136</v>
@@ -14153,10 +14156,10 @@
         <v>875210.4608</v>
       </c>
       <c r="K61" s="1">
-        <v>822470.3483</v>
+        <v>823095.3841</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5415</v>
+        <v>12.551</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.4338</v>
@@ -14206,10 +14209,10 @@
         <v>918105.6994</v>
       </c>
       <c r="K62" s="1">
-        <v>793873.3321999999</v>
+        <v>794612.6279</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5276</v>
+        <v>12.5393</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.7888</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-47</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.244199999999999</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-46</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9413</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-45</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9801</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.6477</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-43</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.568899999999999</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.429399999999999</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.603999999999999</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-40</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3595</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-39</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.0875</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-38</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.1692</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-37</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0872</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-36</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0976</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-35</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>10.8505</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-34</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.8576</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-33</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.5699</v>
@@ -15133,10 +15136,10 @@
         <v>203934.4573</v>
       </c>
       <c r="K17" s="1">
-        <v>133609.3168</v>
+        <v>133617.4372</v>
       </c>
       <c r="L17" s="1">
-        <v>9.4779</v>
+        <v>9.4785</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-32</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5994</v>
@@ -15186,10 +15189,10 @@
         <v>228610.8476</v>
       </c>
       <c r="K18" s="1">
-        <v>136100.0941</v>
+        <v>136108.2145</v>
       </c>
       <c r="L18" s="1">
-        <v>9.521000000000001</v>
+        <v>9.521599999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6663</v>
@@ -15239,10 +15242,10 @@
         <v>260107.7714</v>
       </c>
       <c r="K19" s="1">
-        <v>134095.6097</v>
+        <v>134111.7324</v>
       </c>
       <c r="L19" s="1">
-        <v>9.478400000000001</v>
+        <v>9.4795</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.701</v>
@@ -15292,10 +15295,10 @@
         <v>270592.1141</v>
       </c>
       <c r="K20" s="1">
-        <v>131902.7288</v>
+        <v>131927.6106</v>
       </c>
       <c r="L20" s="1">
-        <v>9.422700000000001</v>
+        <v>9.4245</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8109</v>
@@ -15345,10 +15348,10 @@
         <v>267344.6341</v>
       </c>
       <c r="K21" s="1">
-        <v>144542.332</v>
+        <v>144567.2138</v>
       </c>
       <c r="L21" s="1">
-        <v>9.7293</v>
+        <v>9.731</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-28</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.9322</v>
@@ -15398,10 +15401,10 @@
         <v>292639.1748</v>
       </c>
       <c r="K22" s="1">
-        <v>171114.966</v>
+        <v>171139.8478</v>
       </c>
       <c r="L22" s="1">
-        <v>10.1996</v>
+        <v>10.2011</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.5846</v>
@@ -15451,10 +15454,10 @@
         <v>278924.0418</v>
       </c>
       <c r="K23" s="1">
-        <v>182599.4542</v>
+        <v>182624.3361</v>
       </c>
       <c r="L23" s="1">
-        <v>10.3754</v>
+        <v>10.3768</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2867</v>
@@ -15504,10 +15507,10 @@
         <v>282658.0536</v>
       </c>
       <c r="K24" s="1">
-        <v>220089.103</v>
+        <v>220113.9848</v>
       </c>
       <c r="L24" s="1">
-        <v>10.6983</v>
+        <v>10.6995</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.0645</v>
@@ -15557,10 +15560,10 @@
         <v>319071.3139</v>
       </c>
       <c r="K25" s="1">
-        <v>240161.1003</v>
+        <v>240185.9822</v>
       </c>
       <c r="L25" s="1">
-        <v>10.8168</v>
+        <v>10.8179</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8083</v>
@@ -15610,10 +15613,10 @@
         <v>345372.9019</v>
       </c>
       <c r="K26" s="1">
-        <v>236996.2903</v>
+        <v>237033.8162</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7917</v>
+        <v>10.7934</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.5636</v>
@@ -15663,10 +15666,10 @@
         <v>350045.6033</v>
       </c>
       <c r="K27" s="1">
-        <v>234981.6784</v>
+        <v>235027.2563</v>
       </c>
       <c r="L27" s="1">
-        <v>10.7714</v>
+        <v>10.7735</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-22</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.1788</v>
@@ -15716,10 +15719,10 @@
         <v>360840.789</v>
       </c>
       <c r="K28" s="1">
-        <v>254898.0032</v>
+        <v>254943.5811</v>
       </c>
       <c r="L28" s="1">
-        <v>10.9489</v>
+        <v>10.9508</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.5668</v>
@@ -15769,10 +15772,10 @@
         <v>405489.5772</v>
       </c>
       <c r="K29" s="1">
-        <v>278662.249</v>
+        <v>278707.8269</v>
       </c>
       <c r="L29" s="1">
-        <v>11.1108</v>
+        <v>11.1126</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.962</v>
@@ -15822,10 +15825,10 @@
         <v>401172.9931</v>
       </c>
       <c r="K30" s="1">
-        <v>258787.0566</v>
+        <v>258912.0209</v>
       </c>
       <c r="L30" s="1">
-        <v>10.9107</v>
+        <v>10.916</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.2659</v>
@@ -15875,10 +15878,10 @@
         <v>377997.2413</v>
       </c>
       <c r="K31" s="1">
-        <v>288394.164</v>
+        <v>288519.1283</v>
       </c>
       <c r="L31" s="1">
-        <v>11.1629</v>
+        <v>11.1678</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.4103</v>
@@ -15928,10 +15931,10 @@
         <v>392178.9464</v>
       </c>
       <c r="K32" s="1">
-        <v>347761.9889</v>
+        <v>347886.9533</v>
       </c>
       <c r="L32" s="1">
-        <v>11.3406</v>
+        <v>11.3446</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.3976</v>
@@ -15981,10 +15984,10 @@
         <v>401733.0091</v>
       </c>
       <c r="K33" s="1">
-        <v>359018.905</v>
+        <v>359143.8693</v>
       </c>
       <c r="L33" s="1">
-        <v>11.3719</v>
+        <v>11.3759</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-16</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9013</v>
@@ -16034,10 +16037,10 @@
         <v>442405.9951</v>
       </c>
       <c r="K34" s="1">
-        <v>375350.3236</v>
+        <v>375475.288</v>
       </c>
       <c r="L34" s="1">
-        <v>11.4139</v>
+        <v>11.4177</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.3527</v>
@@ -16087,10 +16090,10 @@
         <v>467205.828</v>
       </c>
       <c r="K35" s="1">
-        <v>374920.4218</v>
+        <v>375047.1055</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4124</v>
+        <v>11.4163</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8804</v>
@@ -16140,10 +16143,10 @@
         <v>494560.5484</v>
       </c>
       <c r="K36" s="1">
-        <v>376471.5833</v>
+        <v>376598.267</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4193</v>
+        <v>11.4232</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6268</v>
@@ -16193,10 +16196,10 @@
         <v>543915.7873</v>
       </c>
       <c r="K37" s="1">
-        <v>375697.5297</v>
+        <v>375827.3077</v>
       </c>
       <c r="L37" s="1">
-        <v>11.4151</v>
+        <v>11.4191</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-12</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3636</v>
@@ -16246,10 +16249,10 @@
         <v>577729.3047</v>
       </c>
       <c r="K38" s="1">
-        <v>367985.9009</v>
+        <v>368146.46</v>
       </c>
       <c r="L38" s="1">
-        <v>11.3625</v>
+        <v>11.3674</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.8711</v>
@@ -16299,10 +16302,10 @@
         <v>540143.1862999999</v>
       </c>
       <c r="K39" s="1">
-        <v>361236.8165</v>
+        <v>361424.338</v>
       </c>
       <c r="L39" s="1">
-        <v>11.3071</v>
+        <v>11.313</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1252</v>
@@ -16352,10 +16355,10 @@
         <v>573550.8054</v>
       </c>
       <c r="K40" s="1">
-        <v>426431.0297</v>
+        <v>426618.5511</v>
       </c>
       <c r="L40" s="1">
-        <v>11.6389</v>
+        <v>11.6441</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1934</v>
@@ -16405,10 +16408,10 @@
         <v>586048.9953</v>
       </c>
       <c r="K41" s="1">
-        <v>434780.8678</v>
+        <v>434968.3892</v>
       </c>
       <c r="L41" s="1">
-        <v>11.6788</v>
+        <v>11.6838</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-8</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1176</v>
@@ -16458,10 +16461,10 @@
         <v>593091.1504</v>
       </c>
       <c r="K42" s="1">
-        <v>450182.9624</v>
+        <v>450370.4838</v>
       </c>
       <c r="L42" s="1">
-        <v>11.7507</v>
+        <v>11.7556</v>
       </c>
       <c r="M42" s="1">
         <v>0.5</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3311</v>
@@ -16511,10 +16514,10 @@
         <v>668449.9002</v>
       </c>
       <c r="K43" s="1">
-        <v>471303.8361</v>
+        <v>471491.3575</v>
       </c>
       <c r="L43" s="1">
-        <v>11.8405</v>
+        <v>11.8452</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-6</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3637</v>
@@ -16564,10 +16567,10 @@
         <v>679684.0472</v>
       </c>
       <c r="K44" s="1">
-        <v>441393.5303</v>
+        <v>441700.601</v>
       </c>
       <c r="L44" s="1">
-        <v>11.6594</v>
+        <v>11.6675</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6447</v>
@@ -16617,10 +16620,10 @@
         <v>661630.7799</v>
       </c>
       <c r="K45" s="1">
-        <v>458917.8629</v>
+        <v>459224.9337</v>
       </c>
       <c r="L45" s="1">
-        <v>11.7684</v>
+        <v>11.7763</v>
       </c>
       <c r="M45" s="1">
         <v>1</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>15.486</v>
@@ -16670,10 +16673,10 @@
         <v>741976.532</v>
       </c>
       <c r="K46" s="1">
-        <v>506058.1728</v>
+        <v>506365.2435</v>
       </c>
       <c r="L46" s="1">
-        <v>11.9896</v>
+        <v>11.9969</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-3</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.1958</v>
@@ -16723,10 +16726,10 @@
         <v>781134.9273</v>
       </c>
       <c r="K47" s="1">
-        <v>489808.6314</v>
+        <v>490180.6291</v>
       </c>
       <c r="L47" s="1">
-        <v>11.8998</v>
+        <v>11.9089</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-2</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.4264</v>
@@ -16776,10 +16779,10 @@
         <v>800473.2156</v>
       </c>
       <c r="K48" s="1">
-        <v>480153.8141</v>
+        <v>480564.3639</v>
       </c>
       <c r="L48" s="1">
-        <v>11.8364</v>
+        <v>11.8465</v>
       </c>
       <c r="M48" s="1">
         <v>0.75</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>17.107</v>
@@ -16829,10 +16832,10 @@
         <v>865800.4937</v>
       </c>
       <c r="K49" s="1">
-        <v>490692.8562</v>
+        <v>491103.406</v>
       </c>
       <c r="L49" s="1">
-        <v>11.9082</v>
+        <v>11.9182</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.8894</v>
@@ -16882,10 +16885,10 @@
         <v>866950.4131</v>
       </c>
       <c r="K50" s="1">
-        <v>482806.8223</v>
+        <v>483248.8863</v>
       </c>
       <c r="L50" s="1">
-        <v>11.8491</v>
+        <v>11.86</v>
       </c>
       <c r="M50" s="1">
         <v>1</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.4004</v>
@@ -16935,10 +16938,10 @@
         <v>892772.5612</v>
       </c>
       <c r="K51" s="1">
-        <v>512209.1338</v>
+        <v>512651.1978</v>
       </c>
       <c r="L51" s="1">
-        <v>12.0566</v>
+        <v>12.067</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>15.3877</v>
@@ -16988,10 +16991,10 @@
         <v>857106.9083</v>
       </c>
       <c r="K52" s="1">
-        <v>553848.9221</v>
+        <v>554290.9861</v>
       </c>
       <c r="L52" s="1">
-        <v>12.303</v>
+        <v>12.3128</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>14.6367</v>
@@ -17041,10 +17044,10 @@
         <v>829851.2664</v>
       </c>
       <c r="K53" s="1">
-        <v>620667.4777</v>
+        <v>621109.5416999999</v>
       </c>
       <c r="L53" s="1">
-        <v>12.5766</v>
+        <v>12.5855</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.0061</v>
@@ -17094,10 +17097,10 @@
         <v>752806.9277</v>
       </c>
       <c r="K54" s="1">
-        <v>679258.4849</v>
+        <v>679700.5489000001</v>
       </c>
       <c r="L54" s="1">
-        <v>12.733</v>
+        <v>12.7413</v>
       </c>
       <c r="M54" s="1">
         <v>0.5</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.835</v>
@@ -17147,10 +17150,10 @@
         <v>835125.867</v>
       </c>
       <c r="K55" s="1">
-        <v>749626.7279000001</v>
+        <v>750068.7918</v>
       </c>
       <c r="L55" s="1">
-        <v>12.7605</v>
+        <v>12.7681</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>14.4216</v>
@@ -17200,10 +17203,10 @@
         <v>879975.7476</v>
       </c>
       <c r="K56" s="1">
-        <v>761505.8260999999</v>
+        <v>761947.8901</v>
       </c>
       <c r="L56" s="1">
-        <v>12.7764</v>
+        <v>12.7838</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2404</v>
@@ -17253,10 +17256,10 @@
         <v>820738.3899</v>
       </c>
       <c r="K57" s="1">
-        <v>748902.4237</v>
+        <v>749394.8123</v>
       </c>
       <c r="L57" s="1">
-        <v>12.7515</v>
+        <v>12.7599</v>
       </c>
       <c r="M57" s="1">
         <v>0.4</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.382</v>
@@ -17306,10 +17309,10 @@
         <v>797817.6183</v>
       </c>
       <c r="K58" s="1">
-        <v>803582.1819</v>
+        <v>804074.5706</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7853</v>
+        <v>12.7931</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.9583</v>
@@ -17359,10 +17362,10 @@
         <v>780057.9993</v>
       </c>
       <c r="K59" s="1">
-        <v>834725.1531</v>
+        <v>835217.5418</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7708</v>
+        <v>12.7783</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2036</v>
@@ -17412,10 +17415,10 @@
         <v>806222.9784</v>
       </c>
       <c r="K60" s="1">
-        <v>844725.1531</v>
+        <v>845217.5418</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7608</v>
+        <v>12.7683</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9136</v>
@@ -17465,10 +17468,10 @@
         <v>887500.2785</v>
       </c>
       <c r="K61" s="1">
-        <v>854725.1531</v>
+        <v>855217.5418</v>
       </c>
       <c r="L61" s="1">
-        <v>12.7543</v>
+        <v>12.7617</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.4338</v>
@@ -17518,10 +17521,10 @@
         <v>933509.5401</v>
       </c>
       <c r="K62" s="1">
-        <v>888555.969</v>
+        <v>889048.3576</v>
       </c>
       <c r="L62" s="1">
-        <v>12.7613</v>
+        <v>12.7684</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>12.9329</v>
       </c>
       <c r="D3" s="1">
-        <v>12.1832</v>
+        <v>12.1991</v>
       </c>
       <c r="E3" s="1">
-        <v>12.3605</v>
+        <v>12.3742</v>
       </c>
       <c r="F3" s="1">
-        <v>12.5276</v>
+        <v>12.5393</v>
       </c>
       <c r="G3" s="1">
-        <v>12.7613</v>
+        <v>12.7684</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>289048.3576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0367</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.5348</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3338</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1554</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
